--- a/16.ukpba/extracted_data/16.Data.xlsx
+++ b/16.ukpba/extracted_data/16.Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="351">
   <si>
     <t>logo</t>
   </si>
@@ -38,6 +38,9 @@
     <t xml:space="preserve">Email </t>
   </si>
   <si>
+    <t>websiteUrl</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/a-p-e-edinburgh.png</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
     <t>A.P.E Edinburgh</t>
   </si>
   <si>
+    <t>https://www.facebook.com/ApePaintball</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Absolutely-Paintball.png</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
     <t>Absolutely Paintball</t>
   </si>
   <si>
+    <t>http://www.absolutely-paintball.co.uk/why-us.html</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Action-paintball.png</t>
   </si>
   <si>
@@ -86,6 +95,9 @@
     <t>Action Paintball</t>
   </si>
   <si>
+    <t>http://www.actionpaintballcornwall.com/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Adventure1.png</t>
   </si>
   <si>
@@ -104,6 +116,9 @@
     <t>Adventure Company</t>
   </si>
   <si>
+    <t>http://www.adventure-company.co.uk/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/adventure-sport-logo.jpg</t>
   </si>
   <si>
@@ -122,6 +137,9 @@
     <t>Adventure Sports (Warwickshire) Ltd</t>
   </si>
   <si>
+    <t>http://www.adventuresport.co.uk/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/big-dunks-paintball.png</t>
   </si>
   <si>
@@ -137,6 +155,9 @@
     <t>01840 211 460</t>
   </si>
   <si>
+    <t>http://www.bigdunkspaintball.co.uk/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Black-Mountain-Activities.png</t>
   </si>
   <si>
@@ -155,6 +176,9 @@
     <t>Black Mountain Activities</t>
   </si>
   <si>
+    <t>http://www.blackmountain.co.uk/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Chaos-Paintball.png</t>
   </si>
   <si>
@@ -173,6 +197,9 @@
     <t>Chaos Paintball</t>
   </si>
   <si>
+    <t>http://www.armourgeddon.co.uk/chaos_paintball.php#.VWhb1kbTDIV</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Chepstow-Outdoor-Activity-Centre.png</t>
   </si>
   <si>
@@ -191,6 +218,9 @@
     <t>Chepstow Outdoor Activity Centre</t>
   </si>
   <si>
+    <t>http://www.fweb.org.uk/local-activity/20-_Chepstow_Outdoor_Activity_Centre</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Combat-Paintball.png</t>
   </si>
   <si>
@@ -209,6 +239,9 @@
     <t>Combat Paintball</t>
   </si>
   <si>
+    <t>http://www.ukbizs.com/business/Combat-Paintball_1Eia.html</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Combat-Zone-Paintball.png</t>
   </si>
   <si>
@@ -224,6 +257,9 @@
     <t>Combat Zone Paintball</t>
   </si>
   <si>
+    <t>http://www.combatzonepaintball.co.uk/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Conflict.png</t>
   </si>
   <si>
@@ -242,6 +278,9 @@
     <t>Conflict PAINT Balling</t>
   </si>
   <si>
+    <t>http://www.conflictpaintball.com/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/ucap-logo.jpg</t>
   </si>
   <si>
@@ -260,6 +299,9 @@
     <t>Cracking Day</t>
   </si>
   <si>
+    <t>http://ucap.co.uk/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Crackshots.png</t>
   </si>
   <si>
@@ -278,6 +320,9 @@
     <t>Crackshots</t>
   </si>
   <si>
+    <t>http://www.crackshots.co.uk/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/culla-park-paintball.jpg</t>
   </si>
   <si>
@@ -296,6 +341,9 @@
     <t>Culla Park Paintball</t>
   </si>
   <si>
+    <t>http://www.sportsbase.co.uk/clubs/culla-park-paintball</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Dalby-Activity-Centre.png</t>
   </si>
   <si>
@@ -314,6 +362,9 @@
     <t>Dalby Activity Centre</t>
   </si>
   <si>
+    <t>http://dalbyactivitycentre.co.uk/paintballing.php</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/DF-Logo.png</t>
   </si>
   <si>
@@ -332,6 +383,9 @@
     <t>Delta Force Paintball</t>
   </si>
   <si>
+    <t>http://www.paintballgames.co.uk/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Dragon-Raiders-Activity-Park.png</t>
   </si>
   <si>
@@ -350,6 +404,9 @@
     <t>Dragon Raiders Activity Park</t>
   </si>
   <si>
+    <t>http://www.dragonraiders.co.uk/dragon-raider-paintball-park/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Excalibur-Paintball-Games.png</t>
   </si>
   <si>
@@ -368,6 +425,9 @@
     <t>Excalibur Paintball Games</t>
   </si>
   <si>
+    <t>http://www.bcsplat.com/contact.html</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/FML-Insurance-Services-Limited.png</t>
   </si>
   <si>
@@ -386,6 +446,9 @@
     <t>FML Insurance Services Limited</t>
   </si>
   <si>
+    <t>https://fml-insurance.co.uk/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Frontline-Paintball.png</t>
   </si>
   <si>
@@ -401,6 +464,9 @@
     <t>Frontline Paintball</t>
   </si>
   <si>
+    <t>http://www.paintballgamesuk.org.uk/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Gunsmoke-Paintball.png</t>
   </si>
   <si>
@@ -419,6 +485,9 @@
     <t>Gunsmoke Paintball</t>
   </si>
   <si>
+    <t>http://www.gunsmoke-paintball.co.uk/playpaintball.html</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Hartmann-International.jpg</t>
   </si>
   <si>
@@ -437,6 +506,9 @@
     <t>Hartmann International</t>
   </si>
   <si>
+    <t>http://www.hartmann-international.com/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Ivyleaf-Paintball.png</t>
   </si>
   <si>
@@ -452,6 +524,9 @@
     <t>Ivyleaf Paintball</t>
   </si>
   <si>
+    <t>http://www.ivyleafpaintball.co.uk/about-us/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Madtrax-Off-Road-Karting.png</t>
   </si>
   <si>
@@ -467,6 +542,9 @@
     <t>Madtrax Off Road Karting &amp; Paintball Centre</t>
   </si>
   <si>
+    <t>http://www.madtrax.webeden.co.uk/madtrax-paintball/4539321747</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/marchbrook-paintball.png</t>
   </si>
   <si>
@@ -485,6 +563,9 @@
     <t>Marchbrook Leisure</t>
   </si>
   <si>
+    <t>http://www.marchbrookpaintball.co.uk/contact-us/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Mayhem-Canterbury.png</t>
   </si>
   <si>
@@ -503,6 +584,9 @@
     <t>Mayhem Canterbury</t>
   </si>
   <si>
+    <t>http://www.mayhemsoutheast.com/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Modern-Ops-Paintball.png</t>
   </si>
   <si>
@@ -521,6 +605,9 @@
     <t>Modern Ops Paintball</t>
   </si>
   <si>
+    <t>https://www.facebook.com/pages/Modern-Ops-Paintball/563103447047256</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/New-Forest-Water-Park.png</t>
   </si>
   <si>
@@ -539,6 +626,9 @@
     <t>New Forest Water Park</t>
   </si>
   <si>
+    <t>http://www.newforestwaterpark.co.uk/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/NPF-Bassetts-Pole.png</t>
   </si>
   <si>
@@ -554,6 +644,9 @@
     <t>NPF Bassetts Pole</t>
   </si>
   <si>
+    <t>http://www.npfbassettspole.com/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Outdoor-Action-Paintball-Logo.jpg</t>
   </si>
   <si>
@@ -572,6 +665,9 @@
     <t>Outdoor Action Paintball</t>
   </si>
   <si>
+    <t>http://www.outdooractionpaintball.co.uk/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Paintball-at-Quex.png</t>
   </si>
   <si>
@@ -590,6 +686,9 @@
     <t>Paintball at Quex</t>
   </si>
   <si>
+    <t>http://www.quexpaintball.com/index.php/home-mainmenu-1/safety</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Paintball-Trax.png</t>
   </si>
   <si>
@@ -605,6 +704,9 @@
     <t>Paintball Trax</t>
   </si>
   <si>
+    <t>http://www.paintball-trax.co.uk/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/logo1.png</t>
   </si>
   <si>
@@ -623,6 +725,9 @@
     <t>Paintball.co.uk</t>
   </si>
   <si>
+    <t>http://www.paintball.co.uk/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/PaintballWales.jpg</t>
   </si>
   <si>
@@ -638,6 +743,9 @@
     <t>PaintballWales.com</t>
   </si>
   <si>
+    <t>http://www.paintballwales.com/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Phoenix-Paintball.png</t>
   </si>
   <si>
@@ -653,6 +761,9 @@
     <t>Phoenix Paintball</t>
   </si>
   <si>
+    <t>http://www.phoenixpaintball.co.uk/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Planet-Paintball.png</t>
   </si>
   <si>
@@ -671,6 +782,9 @@
     <t>Planet Paintball</t>
   </si>
   <si>
+    <t>http://www.planeteclipse.com/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Propaintball-Online.png</t>
   </si>
   <si>
@@ -689,6 +803,9 @@
     <t>Propaintball Online</t>
   </si>
   <si>
+    <t>http://www.propaintball.nl/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Pure-Rush-Paintball.png</t>
   </si>
   <si>
@@ -701,6 +818,9 @@
     <t>Pure Rush Paintball</t>
   </si>
   <si>
+    <t>http://www.ashfordpaintball.com/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Sportingdays.png</t>
   </si>
   <si>
@@ -719,6 +839,9 @@
     <t>Sporting days</t>
   </si>
   <si>
+    <t>http://www.sportingdaysfarm.com/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Stretton-Circuit.png</t>
   </si>
   <si>
@@ -737,6 +860,9 @@
     <t>Stretton Circuit</t>
   </si>
   <si>
+    <t>http://strettoncircuit.co.uk/2012sitefiles/2012pages/paintball.php</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Tactical-Action-Games1.png</t>
   </si>
   <si>
@@ -755,6 +881,9 @@
     <t>Tactical Action Games</t>
   </si>
   <si>
+    <t>http://www.tagames.co.uk/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Targets-Paintball.png</t>
   </si>
   <si>
@@ -773,6 +902,9 @@
     <t>Targets Paintball</t>
   </si>
   <si>
+    <t>http://www.targetspaintball.co.uk/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/The-Able-Project.png</t>
   </si>
   <si>
@@ -791,6 +923,9 @@
     <t>The Able Project</t>
   </si>
   <si>
+    <t>http://www.theableproject.org.uk/learning/bespoke-visits</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/The-Dangerzone.png</t>
   </si>
   <si>
@@ -809,6 +944,9 @@
     <t>The Dangerzone MMA</t>
   </si>
   <si>
+    <t>http://www.dangerzonemma.com/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Great-War-Experience.jpg</t>
   </si>
   <si>
@@ -827,6 +965,9 @@
     <t>The Great War Experience WW1 Indoor Paintball</t>
   </si>
   <si>
+    <t>http://www.paintball-essex.org/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/The-Paintball-Shop.gif</t>
   </si>
   <si>
@@ -845,6 +986,9 @@
     <t>The Paintball Shop</t>
   </si>
   <si>
+    <t>http://www.paintballshop.co.za/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/top-gun.jpg</t>
   </si>
   <si>
@@ -863,6 +1007,9 @@
     <t>Topgun Paintball</t>
   </si>
   <si>
+    <t>http://www.topgunpaintball.co.uk/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Vertical-Descents.png</t>
   </si>
   <si>
@@ -881,6 +1028,9 @@
     <t>Vertical Descents</t>
   </si>
   <si>
+    <t>http://www.verticaldescents.com/paintball/paintball.html</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/warzone-paintball.jpg</t>
   </si>
   <si>
@@ -899,6 +1049,9 @@
     <t>Warzone Paintball Games</t>
   </si>
   <si>
+    <t>http://www.warzonepaintball.co.uk/</t>
+  </si>
+  <si>
     <t>http://www.ukpba.org.uk/wp-content/uploads/Woolaball-Paintball.png</t>
   </si>
   <si>
@@ -912,6 +1065,9 @@
   </si>
   <si>
     <t>Woolaball Paintball</t>
+  </si>
+  <si>
+    <t>http://www.hullpaintball.co.uk/</t>
   </si>
 </sst>
 </file>
@@ -1381,8 +1537,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{fd2e7040-d1aa-4d96-a6c4-278be4b83c46}">
-  <dimension ref="A1:F104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a8129435-4aac-4b06-86ba-ef4a6e1e3604}">
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -1394,9 +1550,10 @@
     <col min="4" max="4" width="15.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="41.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="30.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75">
+    <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1411,8 +1568,11 @@
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="12.75">
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1425,1987 +1585,2295 @@
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="12.75">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.75">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.75">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.75">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.75">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.75">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12.75">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.75">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A23" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12.75">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A25" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12.75">
+      <c r="A26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A27" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="12.75">
+      <c r="A28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A29" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.75">
+      <c r="A30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A31" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="12.75">
+      <c r="A32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A33" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12.75">
+      <c r="A34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A35" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12.75">
+      <c r="A36" t="s">
+        <v>230</v>
+      </c>
+      <c r="B36" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" t="s">
+        <v>232</v>
+      </c>
+      <c r="D36" t="s">
+        <v>234</v>
+      </c>
+      <c r="E36" t="s">
+        <v>235</v>
+      </c>
+      <c r="F36" t="s">
+        <v>233</v>
+      </c>
+      <c r="G36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A37" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="12.75">
+      <c r="A38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38" t="s">
+        <v>246</v>
+      </c>
+      <c r="E38" t="s">
+        <v>247</v>
+      </c>
+      <c r="G38" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A39" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="12.75">
+      <c r="A40" t="s">
+        <v>256</v>
+      </c>
+      <c r="B40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C40" t="s">
+        <v>258</v>
+      </c>
+      <c r="D40" t="s">
+        <v>260</v>
+      </c>
+      <c r="E40" t="s">
+        <v>261</v>
+      </c>
+      <c r="F40" t="s">
+        <v>259</v>
+      </c>
+      <c r="G40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A41" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="12.75">
+      <c r="A42" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42" t="s">
+        <v>269</v>
+      </c>
+      <c r="C42" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" t="s">
+        <v>272</v>
+      </c>
+      <c r="E42" t="s">
+        <v>273</v>
+      </c>
+      <c r="F42" t="s">
+        <v>271</v>
+      </c>
+      <c r="G42" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A43" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="12.75">
+      <c r="A44" t="s">
+        <v>282</v>
+      </c>
+      <c r="B44" t="s">
+        <v>283</v>
+      </c>
+      <c r="C44" t="s">
+        <v>284</v>
+      </c>
+      <c r="D44" t="s">
+        <v>286</v>
+      </c>
+      <c r="E44" t="s">
+        <v>287</v>
+      </c>
+      <c r="F44" t="s">
+        <v>285</v>
+      </c>
+      <c r="G44" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A45" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="12.75">
+      <c r="A46" t="s">
+        <v>296</v>
+      </c>
+      <c r="B46" t="s">
+        <v>297</v>
+      </c>
+      <c r="C46" t="s">
+        <v>298</v>
+      </c>
+      <c r="D46" t="s">
+        <v>300</v>
+      </c>
+      <c r="E46" t="s">
+        <v>301</v>
+      </c>
+      <c r="F46" t="s">
+        <v>299</v>
+      </c>
+      <c r="G46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A47" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="12.75">
+      <c r="A48" t="s">
+        <v>310</v>
+      </c>
+      <c r="B48" t="s">
+        <v>311</v>
+      </c>
+      <c r="C48" t="s">
+        <v>312</v>
+      </c>
+      <c r="D48" t="s">
+        <v>314</v>
+      </c>
+      <c r="E48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F48" t="s">
+        <v>313</v>
+      </c>
+      <c r="G48" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A49" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="12.75">
+      <c r="A50" t="s">
+        <v>324</v>
+      </c>
+      <c r="B50" t="s">
+        <v>325</v>
+      </c>
+      <c r="C50" t="s">
+        <v>326</v>
+      </c>
+      <c r="D50" t="s">
+        <v>328</v>
+      </c>
+      <c r="E50" t="s">
+        <v>329</v>
+      </c>
+      <c r="F50" t="s">
+        <v>327</v>
+      </c>
+      <c r="G50" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A51" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="12.75">
+      <c r="A52" t="s">
+        <v>338</v>
+      </c>
+      <c r="B52" t="s">
+        <v>339</v>
+      </c>
+      <c r="C52" t="s">
+        <v>340</v>
+      </c>
+      <c r="D52" t="s">
+        <v>342</v>
+      </c>
+      <c r="E52" t="s">
+        <v>343</v>
+      </c>
+      <c r="F52" t="s">
+        <v>341</v>
+      </c>
+      <c r="G52" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A53" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="12.75">
+      <c r="A54" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B54" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C54" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D54" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="12.75">
-      <c r="A4" t="s">
+      <c r="E54" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G54" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="55" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A55" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C55" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A5" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
+    </row>
+    <row r="56" spans="1:7" ht="12.75">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="C56" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75">
-      <c r="A6" t="s">
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A57" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B57" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A7" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D57" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4" t="s">
+    </row>
+    <row r="58" spans="1:7" ht="12.75">
+      <c r="A58" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="12.75">
-      <c r="A8" t="s">
+      <c r="B58" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C58" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A9" s="4" t="s">
+      <c r="G58" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="59" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A59" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="C59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12.75">
-      <c r="A10" t="s">
+      <c r="G59" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="60" spans="1:7" ht="12.75">
+      <c r="A60" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B60" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" t="s">
         <v>50</v>
       </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="G60" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="4" t="s">
+    </row>
+    <row r="61" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A61" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="B61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="D61" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="G61" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="62" spans="1:7" ht="12.75">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
         <v>62</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C62" t="s">
         <v>63</v>
       </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="12.75">
-      <c r="A13" s="4" t="s">
+      <c r="D62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="G62" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="4" t="s">
+    </row>
+    <row r="63" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A63" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75">
-      <c r="A14" t="s">
+      <c r="B63" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C63" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D63" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="G63" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A15" s="4" t="s">
+    </row>
+    <row r="64" spans="1:7" ht="12.75">
+      <c r="A64" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B64" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C64" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="G64" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="12.75">
-      <c r="A16" t="s">
+    </row>
+    <row r="65" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A65" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B65" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C65" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D65" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E65" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F65" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A17" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="66" spans="1:7" ht="12.75">
+      <c r="A66" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="B66" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="C66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" t="s">
+        <v>93</v>
+      </c>
+      <c r="F66" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="12.75">
-      <c r="A18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="G66" t="s">
         <v>94</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="67" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A67" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B67" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D67" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A19" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="G67" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="4" t="s">
+    </row>
+    <row r="68" spans="1:7" ht="12.75">
+      <c r="A68" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="C68" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12.75">
-      <c r="A20" t="s">
+      <c r="D68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" t="s">
+        <v>107</v>
+      </c>
+      <c r="F68" t="s">
         <v>105</v>
       </c>
-      <c r="B20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="G68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A69" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E20" t="s">
+      <c r="B69" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A21" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="D69" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="4" t="s">
+    </row>
+    <row r="70" spans="1:7" ht="12.75">
+      <c r="A70" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12.75">
-      <c r="A22" t="s">
+      <c r="B70" t="s">
         <v>117</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C70" t="s">
         <v>118</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D70" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" t="s">
+        <v>121</v>
+      </c>
+      <c r="F70" t="s">
         <v>119</v>
       </c>
-      <c r="D22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="G70" t="s">
         <v>122</v>
       </c>
-      <c r="F22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="12.75">
-      <c r="A23" s="4" t="s">
+    </row>
+    <row r="71" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A71" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D71" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="12.75">
-      <c r="A24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="G71" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="72" spans="1:7" ht="12.75">
+      <c r="A72" t="s">
         <v>130</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B72" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" t="s">
         <v>132</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D72" t="s">
+        <v>134</v>
+      </c>
+      <c r="E72" t="s">
+        <v>135</v>
+      </c>
+      <c r="F72" t="s">
         <v>133</v>
       </c>
-      <c r="F24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A25" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="G72" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="4" t="s">
+    </row>
+    <row r="73" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A73" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="12.75">
-      <c r="A26" t="s">
+      <c r="D73" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="G73" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E26" t="s">
+    </row>
+    <row r="74" spans="1:7" ht="12.75">
+      <c r="A74" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" ht="12.75">
-      <c r="A27" s="4" t="s">
+      <c r="B74" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C74" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D74" t="s">
         <v>147</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E74" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="G74" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75">
-      <c r="A28" t="s">
+    <row r="75" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A75" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B75" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C75" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D75" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E75" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F75" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A29" s="4" t="s">
+      <c r="G75" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="4" t="s">
+    </row>
+    <row r="76" spans="1:7" ht="12.75">
+      <c r="A76" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="B76" t="s">
         <v>158</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="C76" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" t="s">
+        <v>161</v>
+      </c>
+      <c r="E76" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="12.75">
-      <c r="A30" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="G76" t="s">
         <v>163</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="77" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A77" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D30" t="s">
+      <c r="B77" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E30" t="s">
+      <c r="D77" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A31" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="G77" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C31" s="4" t="s">
+    </row>
+    <row r="78" spans="1:7" ht="12.75">
+      <c r="A78" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="B78" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="D78" t="s">
         <v>173</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="12.75">
-      <c r="A32" t="s">
+      <c r="E78" t="s">
         <v>174</v>
       </c>
-      <c r="B32" t="s">
+      <c r="G78" t="s">
         <v>175</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="79" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A79" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D32" t="s">
+      <c r="B79" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E32" t="s">
+      <c r="C79" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A33" s="4" t="s">
+      <c r="D79" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="G79" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="12.75">
+      <c r="A80" t="s">
         <v>183</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="B80" t="s">
         <v>184</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="12.75">
-      <c r="A34" t="s">
+      <c r="C80" t="s">
         <v>185</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D80" t="s">
+        <v>187</v>
+      </c>
+      <c r="E80" t="s">
+        <v>188</v>
+      </c>
+      <c r="F80" t="s">
         <v>186</v>
       </c>
-      <c r="C34" t="s">
-        <v>187</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="G80" t="s">
         <v>189</v>
       </c>
-      <c r="E34" t="s">
+    </row>
+    <row r="81" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A81" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" ht="12.75">
-      <c r="A35" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D81" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="12.75">
-      <c r="A36" t="s">
+      <c r="G81" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="82" spans="1:7" ht="12.75">
+      <c r="A82" t="s">
         <v>197</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B82" t="s">
         <v>198</v>
       </c>
-      <c r="D36" t="s">
+      <c r="C82" t="s">
+        <v>199</v>
+      </c>
+      <c r="D82" t="s">
+        <v>201</v>
+      </c>
+      <c r="E82" t="s">
+        <v>202</v>
+      </c>
+      <c r="F82" t="s">
         <v>200</v>
       </c>
-      <c r="E36" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" ht="12.75">
-      <c r="A37" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="G82" t="s">
         <v>203</v>
       </c>
-      <c r="C37" s="4" t="s">
+    </row>
+    <row r="83" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A83" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="12.75">
-      <c r="A38" t="s">
+      <c r="D83" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B38" t="s">
+      <c r="E83" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C38" t="s">
+      <c r="G83" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D38" t="s">
+    </row>
+    <row r="84" spans="1:7" ht="12.75">
+      <c r="A84" t="s">
         <v>210</v>
       </c>
-      <c r="E38" t="s">
+      <c r="B84" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A39" s="4" t="s">
+      <c r="C84" t="s">
         <v>212</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="D84" t="s">
+        <v>214</v>
+      </c>
+      <c r="E84" t="s">
+        <v>215</v>
+      </c>
+      <c r="F84" t="s">
         <v>213</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="G84" t="s">
         <v>216</v>
       </c>
-      <c r="E39" s="4" t="s">
+    </row>
+    <row r="85" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A85" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="12.75">
-      <c r="A40" t="s">
+      <c r="B85" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C85" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D85" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D40" t="s">
-        <v>222</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="G85" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F40" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A41" s="4" t="s">
+    </row>
+    <row r="86" spans="1:7" ht="12.75">
+      <c r="A86" t="s">
         <v>224</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B86" t="s">
         <v>225</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C86" t="s">
         <v>226</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="D86" t="s">
         <v>227</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="12.75">
-      <c r="A42" t="s">
+      <c r="E86" t="s">
         <v>228</v>
       </c>
-      <c r="B42" t="s">
+      <c r="G86" t="s">
         <v>229</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="87" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A87" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D42" t="s">
+      <c r="B87" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E42" t="s">
+      <c r="D87" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A43" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D43" s="4" t="s">
+    </row>
+    <row r="88" spans="1:7" ht="12.75">
+      <c r="A88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B88" t="s">
         <v>238</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="C88" t="s">
         <v>239</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="12.75">
-      <c r="A44" t="s">
+      <c r="D88" t="s">
         <v>240</v>
       </c>
-      <c r="B44" t="s">
+      <c r="E88" t="s">
         <v>241</v>
       </c>
-      <c r="C44" t="s">
+      <c r="G88" t="s">
         <v>242</v>
       </c>
-      <c r="D44" t="s">
+    </row>
+    <row r="89" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A89" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E44" t="s">
+      <c r="C89" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F44" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A45" s="4" t="s">
+      <c r="D89" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="E89" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="G89" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D45" s="4" t="s">
+    </row>
+    <row r="90" spans="1:7" ht="12.75">
+      <c r="A90" t="s">
+        <v>249</v>
+      </c>
+      <c r="B90" t="s">
         <v>250</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="C90" t="s">
         <v>251</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="12.75">
-      <c r="A46" t="s">
+      <c r="D90" t="s">
+        <v>253</v>
+      </c>
+      <c r="E90" t="s">
+        <v>254</v>
+      </c>
+      <c r="F90" t="s">
         <v>252</v>
       </c>
-      <c r="B46" t="s">
-        <v>253</v>
-      </c>
-      <c r="C46" t="s">
-        <v>254</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="G90" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A91" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E46" t="s">
+      <c r="B91" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F46" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A47" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="D91" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="G91" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="12.75">
+      <c r="A92" t="s">
+        <v>263</v>
+      </c>
+      <c r="B92" t="s">
+        <v>264</v>
+      </c>
+      <c r="C92" t="s">
+        <v>265</v>
+      </c>
+      <c r="D92" t="s">
         <v>260</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="12.75">
-      <c r="A48" t="s">
-        <v>264</v>
-      </c>
-      <c r="B48" t="s">
-        <v>265</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="E92" t="s">
         <v>266</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F92" t="s">
+        <v>259</v>
+      </c>
+      <c r="G92" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A93" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E48" t="s">
+      <c r="B93" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="F48" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A49" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="D93" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="G93" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E49" s="4" t="s">
+    </row>
+    <row r="94" spans="1:7" ht="12.75">
+      <c r="A94" t="s">
         <v>275</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="12.75">
-      <c r="A50" t="s">
+      <c r="B94" t="s">
         <v>276</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C94" t="s">
         <v>277</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D94" t="s">
+        <v>279</v>
+      </c>
+      <c r="E94" t="s">
+        <v>280</v>
+      </c>
+      <c r="F94" t="s">
         <v>278</v>
       </c>
-      <c r="D50" t="s">
-        <v>280</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="G94" t="s">
         <v>281</v>
       </c>
-      <c r="F50" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A51" s="4" t="s">
+    </row>
+    <row r="95" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A95" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B95" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D95" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E95" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F95" s="4" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="12.75">
-      <c r="A52" t="s">
+      <c r="G95" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="96" spans="1:7" ht="12.75">
+      <c r="A96" t="s">
         <v>289</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B96" t="s">
         <v>290</v>
       </c>
-      <c r="D52" t="s">
+      <c r="C96" t="s">
+        <v>291</v>
+      </c>
+      <c r="D96" t="s">
+        <v>293</v>
+      </c>
+      <c r="E96" t="s">
+        <v>294</v>
+      </c>
+      <c r="F96" t="s">
         <v>292</v>
       </c>
-      <c r="E52" t="s">
-        <v>293</v>
-      </c>
-      <c r="F52" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="4" customFormat="1" ht="12.75">
-      <c r="A53" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B53" s="4" t="s">
+      <c r="G96" t="s">
         <v>295</v>
       </c>
-      <c r="C53" s="4" t="s">
+    </row>
+    <row r="97" spans="1:7" s="4" customFormat="1" ht="12.75">
+      <c r="A97" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="B97" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="12.75">
-      <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="4" customFormat="1" ht="12.75">
-      <c r="A55" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="12.75">
-      <c r="A56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A57" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="12.75">
-      <c r="A58" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D58" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A59" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="12.75">
-      <c r="A60" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D60" t="s">
-        <v>44</v>
-      </c>
-      <c r="E60" t="s">
-        <v>45</v>
-      </c>
-      <c r="F60" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A61" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="12.75">
-      <c r="A62" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" t="s">
-        <v>54</v>
-      </c>
-      <c r="D62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A63" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="12.75">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A65" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="12.75">
-      <c r="A66" t="s">
-        <v>75</v>
-      </c>
-      <c r="B66" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66" t="s">
-        <v>77</v>
-      </c>
-      <c r="D66" t="s">
-        <v>79</v>
-      </c>
-      <c r="E66" t="s">
-        <v>80</v>
-      </c>
-      <c r="F66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A67" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="12.75">
-      <c r="A68" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" t="s">
-        <v>89</v>
-      </c>
-      <c r="D68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68" t="s">
-        <v>92</v>
-      </c>
-      <c r="F68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A69" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="12.75">
-      <c r="A70" t="s">
-        <v>99</v>
-      </c>
-      <c r="B70" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" t="s">
-        <v>101</v>
-      </c>
-      <c r="D70" t="s">
-        <v>103</v>
-      </c>
-      <c r="E70" t="s">
-        <v>104</v>
-      </c>
-      <c r="F70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A71" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="12.75">
-      <c r="A72" t="s">
-        <v>111</v>
-      </c>
-      <c r="B72" t="s">
-        <v>112</v>
-      </c>
-      <c r="C72" t="s">
-        <v>113</v>
-      </c>
-      <c r="D72" t="s">
-        <v>115</v>
-      </c>
-      <c r="E72" t="s">
-        <v>116</v>
-      </c>
-      <c r="F72" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A73" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="12.75">
-      <c r="A74" t="s">
-        <v>123</v>
-      </c>
-      <c r="B74" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" t="s">
-        <v>125</v>
-      </c>
-      <c r="D74" t="s">
-        <v>126</v>
-      </c>
-      <c r="E74" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A75" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="12.75">
-      <c r="A76" t="s">
-        <v>134</v>
-      </c>
-      <c r="B76" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" t="s">
-        <v>136</v>
-      </c>
-      <c r="D76" t="s">
-        <v>138</v>
-      </c>
-      <c r="E76" t="s">
-        <v>139</v>
-      </c>
-      <c r="F76" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="4" customFormat="1" ht="12.75">
-      <c r="A77" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="12.75">
-      <c r="A78" t="s">
-        <v>145</v>
-      </c>
-      <c r="B78" t="s">
-        <v>146</v>
-      </c>
-      <c r="C78" t="s">
-        <v>147</v>
-      </c>
-      <c r="D78" t="s">
-        <v>148</v>
-      </c>
-      <c r="E78" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A79" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="12.75">
-      <c r="A80" t="s">
-        <v>156</v>
-      </c>
-      <c r="B80" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" t="s">
-        <v>158</v>
-      </c>
-      <c r="D80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E80" t="s">
-        <v>161</v>
-      </c>
-      <c r="F80" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A81" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="12.75">
-      <c r="A82" t="s">
-        <v>168</v>
-      </c>
-      <c r="B82" t="s">
-        <v>169</v>
-      </c>
-      <c r="C82" t="s">
-        <v>170</v>
-      </c>
-      <c r="D82" t="s">
-        <v>172</v>
-      </c>
-      <c r="E82" t="s">
-        <v>173</v>
-      </c>
-      <c r="F82" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="4" customFormat="1" ht="12.75">
-      <c r="A83" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="12.75">
-      <c r="A84" t="s">
-        <v>179</v>
-      </c>
-      <c r="B84" t="s">
-        <v>180</v>
-      </c>
-      <c r="C84" t="s">
-        <v>181</v>
-      </c>
-      <c r="D84" t="s">
-        <v>183</v>
-      </c>
-      <c r="E84" t="s">
-        <v>184</v>
-      </c>
-      <c r="F84" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A85" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="12.75">
-      <c r="A86" t="s">
-        <v>191</v>
-      </c>
-      <c r="B86" t="s">
-        <v>192</v>
-      </c>
-      <c r="C86" t="s">
-        <v>193</v>
-      </c>
-      <c r="D86" t="s">
-        <v>194</v>
-      </c>
-      <c r="E86" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A87" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="12.75">
-      <c r="A88" t="s">
-        <v>202</v>
-      </c>
-      <c r="B88" t="s">
-        <v>203</v>
-      </c>
-      <c r="C88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D88" t="s">
-        <v>205</v>
-      </c>
-      <c r="E88" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="4" customFormat="1" ht="12.75">
-      <c r="A89" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="12.75">
-      <c r="A90" t="s">
-        <v>212</v>
-      </c>
-      <c r="B90" t="s">
-        <v>213</v>
-      </c>
-      <c r="C90" t="s">
-        <v>214</v>
-      </c>
-      <c r="D90" t="s">
-        <v>216</v>
-      </c>
-      <c r="E90" t="s">
-        <v>217</v>
-      </c>
-      <c r="F90" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A91" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="12.75">
-      <c r="A92" t="s">
-        <v>224</v>
-      </c>
-      <c r="B92" t="s">
-        <v>225</v>
-      </c>
-      <c r="C92" t="s">
-        <v>226</v>
-      </c>
-      <c r="D92" t="s">
-        <v>222</v>
-      </c>
-      <c r="E92" t="s">
-        <v>227</v>
-      </c>
-      <c r="F92" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A93" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="12.75">
-      <c r="A94" t="s">
-        <v>234</v>
-      </c>
-      <c r="B94" t="s">
-        <v>235</v>
-      </c>
-      <c r="C94" t="s">
-        <v>236</v>
-      </c>
-      <c r="D94" t="s">
-        <v>238</v>
-      </c>
-      <c r="E94" t="s">
-        <v>239</v>
-      </c>
-      <c r="F94" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A95" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="12.75">
-      <c r="A96" t="s">
-        <v>246</v>
-      </c>
-      <c r="B96" t="s">
-        <v>247</v>
-      </c>
-      <c r="C96" t="s">
-        <v>248</v>
-      </c>
-      <c r="D96" t="s">
-        <v>250</v>
-      </c>
-      <c r="E96" t="s">
-        <v>251</v>
-      </c>
-      <c r="F96" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" s="4" customFormat="1" ht="12.75">
-      <c r="A97" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>254</v>
-      </c>
       <c r="D97" s="4" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="12.75">
+        <v>299</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="12.75">
       <c r="A98" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="B98" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="C98" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="D98" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="E98" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="F98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="4" customFormat="1" ht="12.75">
+        <v>306</v>
+      </c>
+      <c r="G98" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="4" customFormat="1" ht="12.75">
       <c r="A99" s="4" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="12.75">
+        <v>313</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="12.75">
       <c r="A100" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="B100" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="C100" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="D100" t="s">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="E100" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="F100" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" s="4" customFormat="1" ht="12.75">
+        <v>320</v>
+      </c>
+      <c r="G100" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="4" customFormat="1" ht="12.75">
       <c r="A101" s="4" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="12.75">
+        <v>327</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="12.75">
       <c r="A102" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="B102" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="C102" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="D102" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="E102" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="F102" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" s="4" customFormat="1" ht="12.75">
+        <v>334</v>
+      </c>
+      <c r="G102" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="4" customFormat="1" ht="12.75">
       <c r="A103" s="4" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>289</v>
+        <v>339</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="12.75">
+        <v>341</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="12.75">
       <c r="A104" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="B104" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="C104" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="D104" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="E104" t="s">
-        <v>298</v>
+        <v>349</v>
+      </c>
+      <c r="G104" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
